--- a/data/data2.xlsx
+++ b/data/data2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="19">
   <si>
     <t>frn_adminid</t>
   </si>
@@ -398,11 +398,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1627,6 +1625,160 @@
         <v>8</v>
       </c>
     </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>323</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>253</v>
+      </c>
+      <c r="B89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>85</v>
+      </c>
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>153</v>
+      </c>
+      <c r="B91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>139</v>
+      </c>
+      <c r="B92" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>246</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>156</v>
+      </c>
+      <c r="B94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>237</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>274</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>308</v>
+      </c>
+      <c r="B97" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>200</v>
+      </c>
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
